--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 1,5 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 1,5 л.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Банки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Александр Гавриленко\Работа\vedatranzit\Участок ремонта форм\Формокомплекты\Паспорта\Банки\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F7D025-0F6F-4B35-AC1A-709F7AB89968}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="12" windowWidth="18780" windowHeight="13296"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,19 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$43</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>№Поз</t>
   </si>
@@ -204,12 +212,18 @@
   </si>
   <si>
     <t>08.08.2019 СКО</t>
+  </si>
+  <si>
+    <t>17.04.2020 СКО</t>
+  </si>
+  <si>
+    <t>25.04.2020 Twist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
@@ -217,7 +231,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -870,8 +884,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1015,20 +1027,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1038,6 +1036,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1135,6 +1153,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1170,6 +1205,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1345,53 +1397,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.21875" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="102" t="s">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="107" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="23"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1399,7 +1451,7 @@
       <c r="L2" s="24"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" thickBot="1">
+    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1411,7 +1463,7 @@
       <c r="K3" s="24"/>
       <c r="M3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
@@ -1449,14 +1501,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
         <v>1</v>
       </c>
       <c r="B5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="96" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="36">
@@ -1465,7 +1517,7 @@
       <c r="E5" s="36">
         <v>27</v>
       </c>
-      <c r="F5" s="66"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="36">
         <f>E5-F5</f>
         <v>27</v>
@@ -1474,9 +1526,9 @@
       <c r="I5" s="39"/>
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
-      <c r="L5" s="62"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="L5" s="60"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="37">
         <f>A5+1</f>
         <v>2</v>
@@ -1484,7 +1536,7 @@
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="78" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="9">
@@ -1493,7 +1545,7 @@
       <c r="E6" s="9">
         <v>27</v>
       </c>
-      <c r="F6" s="67"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="9">
         <f t="shared" ref="G6:G8" si="0">E6-F6</f>
         <v>27</v>
@@ -1502,9 +1554,9 @@
       <c r="I6" s="40"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="63"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="37">
         <f t="shared" ref="A7:A20" si="1">A6+1</f>
         <v>3</v>
@@ -1512,7 +1564,7 @@
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="78" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="9">
@@ -1521,7 +1573,7 @@
       <c r="E7" s="9">
         <v>34</v>
       </c>
-      <c r="F7" s="67"/>
+      <c r="F7" s="65"/>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1530,9 +1582,9 @@
       <c r="I7" s="40"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="63"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="L7" s="61"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="37">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1540,7 +1592,7 @@
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="78" t="s">
         <v>46</v>
       </c>
       <c r="D8" s="9">
@@ -1549,7 +1601,7 @@
       <c r="E8" s="9">
         <v>34</v>
       </c>
-      <c r="F8" s="67"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1558,9 +1610,9 @@
       <c r="I8" s="40"/>
       <c r="J8" s="9"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="63"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="L8" s="61"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="37">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -1568,7 +1620,7 @@
       <c r="B9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="78" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="9">
@@ -1577,7 +1629,7 @@
       <c r="E9" s="9">
         <v>120</v>
       </c>
-      <c r="F9" s="67"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="9">
         <f t="shared" ref="G9:G20" si="2">E9-F9</f>
         <v>120</v>
@@ -1586,9 +1638,9 @@
       <c r="I9" s="41"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="63"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="L9" s="61"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="37">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1596,7 +1648,7 @@
       <c r="B10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="78" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="9">
@@ -1605,7 +1657,7 @@
       <c r="E10" s="9">
         <v>120</v>
       </c>
-      <c r="F10" s="67"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="9">
         <f t="shared" si="2"/>
         <v>120</v>
@@ -1614,17 +1666,17 @@
       <c r="I10" s="41"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="63"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="L10" s="61"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="37">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="78" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="9">
@@ -1633,7 +1685,7 @@
       <c r="E11" s="9">
         <v>24</v>
       </c>
-      <c r="F11" s="67"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="9">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -1642,17 +1694,17 @@
       <c r="I11" s="40"/>
       <c r="J11" s="9"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="63"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="L11" s="61"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="37">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="78" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="9">
@@ -1661,7 +1713,7 @@
       <c r="E12" s="9">
         <v>24</v>
       </c>
-      <c r="F12" s="67"/>
+      <c r="F12" s="65"/>
       <c r="G12" s="9">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -1670,17 +1722,17 @@
       <c r="I12" s="40"/>
       <c r="J12" s="9"/>
       <c r="K12" s="8"/>
-      <c r="L12" s="63"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="L12" s="61"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="37">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="78" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="9">
@@ -1689,7 +1741,7 @@
       <c r="E13" s="9">
         <v>36</v>
       </c>
-      <c r="F13" s="67"/>
+      <c r="F13" s="65"/>
       <c r="G13" s="9">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -1698,18 +1750,18 @@
       <c r="I13" s="41"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="63"/>
+      <c r="L13" s="61"/>
       <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="78" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="11">
@@ -1718,7 +1770,7 @@
       <c r="E14" s="11">
         <v>8</v>
       </c>
-      <c r="F14" s="67"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1727,10 +1779,10 @@
       <c r="I14" s="41"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="63"/>
+      <c r="L14" s="61"/>
       <c r="M14" s="21"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1738,7 +1790,7 @@
       <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="78" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="9">
@@ -1747,7 +1799,7 @@
       <c r="E15" s="9">
         <v>80</v>
       </c>
-      <c r="F15" s="67"/>
+      <c r="F15" s="65"/>
       <c r="G15" s="9">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -1758,9 +1810,9 @@
       <c r="I15" s="41"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="63"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1">
+      <c r="L15" s="61"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1768,7 +1820,7 @@
       <c r="B16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="78" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="9">
@@ -1777,7 +1829,7 @@
       <c r="E16" s="9">
         <v>80</v>
       </c>
-      <c r="F16" s="67"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="9">
         <f t="shared" si="2"/>
         <v>80</v>
@@ -1786,9 +1838,9 @@
       <c r="I16" s="41"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="63"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1">
+      <c r="L16" s="61"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1796,7 +1848,7 @@
       <c r="B17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="78" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="9">
@@ -1805,7 +1857,7 @@
       <c r="E17" s="9">
         <v>240</v>
       </c>
-      <c r="F17" s="67"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="9">
         <f t="shared" si="2"/>
         <v>240</v>
@@ -1814,9 +1866,9 @@
       <c r="I17" s="41"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="63"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.25" customHeight="1">
+      <c r="L17" s="61"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1824,63 +1876,63 @@
       <c r="B18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="72">
         <v>240</v>
       </c>
-      <c r="E18" s="74">
+      <c r="E18" s="72">
         <v>240</v>
       </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="74">
+      <c r="F18" s="73"/>
+      <c r="G18" s="72">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="H18" s="76"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="78"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.25" customHeight="1">
+      <c r="H18" s="74"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="76"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="72">
         <v>20</v>
       </c>
-      <c r="E19" s="74">
+      <c r="E19" s="72">
         <v>20</v>
       </c>
-      <c r="F19" s="75"/>
-      <c r="G19" s="74">
+      <c r="F19" s="73"/>
+      <c r="G19" s="72">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H19" s="76"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="78"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A20" s="101">
+      <c r="H19" s="74"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="76"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="99">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="97" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="38">
@@ -1889,20 +1941,20 @@
       <c r="E20" s="38">
         <v>20</v>
       </c>
-      <c r="F20" s="69"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="38">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H20" s="71"/>
-      <c r="I20" s="72"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
       <c r="J20" s="38"/>
       <c r="K20" s="38"/>
-      <c r="L20" s="73"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="55"/>
-      <c r="B21" s="54"/>
+      <c r="L20" s="71"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="53"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1912,9 +1964,9 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="16.2" thickBot="1">
+    <row r="22" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="54" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="12"/>
@@ -1924,11 +1976,11 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-    </row>
-    <row r="23" spans="1:12" ht="79.8" thickBot="1">
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+    </row>
+    <row r="23" spans="1:12" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>19</v>
       </c>
@@ -1956,68 +2008,68 @@
       <c r="I23" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="64">
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="62">
         <f>E5*700000</f>
         <v>18900000</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="82">
+      <c r="C24" s="80">
         <v>43581</v>
       </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="89">
+      <c r="D24" s="79"/>
+      <c r="E24" s="87">
         <v>811776</v>
       </c>
-      <c r="F24" s="89">
+      <c r="F24" s="87">
         <v>940908</v>
       </c>
-      <c r="G24" s="83">
+      <c r="G24" s="81">
         <f>F24/A$24</f>
         <v>4.9783492063492064E-2</v>
       </c>
-      <c r="H24" s="89">
+      <c r="H24" s="87">
         <f>A24-F24</f>
         <v>17959092</v>
       </c>
-      <c r="I24" s="70">
+      <c r="I24" s="68">
         <f>1-G24</f>
         <v>0.95021650793650791</v>
       </c>
-      <c r="J24" s="59"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-    </row>
-    <row r="25" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A25" s="84"/>
-      <c r="B25" s="85" t="s">
+      <c r="J24" s="57"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="82"/>
+      <c r="B25" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="85">
+      <c r="C25" s="83">
         <v>43587</v>
       </c>
-      <c r="D25" s="85"/>
-      <c r="E25" s="90">
+      <c r="D25" s="83"/>
+      <c r="E25" s="88">
         <v>612678</v>
       </c>
-      <c r="F25" s="90">
+      <c r="F25" s="88">
         <v>704160</v>
       </c>
-      <c r="G25" s="83">
+      <c r="G25" s="81">
         <f>F25/A24</f>
         <v>3.7257142857142857E-2</v>
       </c>
-      <c r="H25" s="89">
+      <c r="H25" s="87">
         <f t="shared" ref="H25:I30" si="3">H24-F25</f>
         <v>17254932</v>
       </c>
-      <c r="I25" s="70">
+      <c r="I25" s="68">
         <f t="shared" si="3"/>
         <v>0.91295936507936504</v>
       </c>
@@ -2025,315 +2077,353 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="12.75" customHeight="1">
+    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="86">
+      <c r="C26" s="84">
         <v>43616</v>
       </c>
-      <c r="D26" s="86"/>
-      <c r="E26" s="91">
+      <c r="D26" s="84"/>
+      <c r="E26" s="89">
         <v>537204</v>
       </c>
-      <c r="F26" s="91">
+      <c r="F26" s="89">
         <v>595393</v>
       </c>
-      <c r="G26" s="83">
+      <c r="G26" s="81">
         <f>F26/A24</f>
         <v>3.1502275132275132E-2</v>
       </c>
-      <c r="H26" s="89">
+      <c r="H26" s="87">
         <f t="shared" si="3"/>
         <v>16659539</v>
       </c>
-      <c r="I26" s="70">
+      <c r="I26" s="68">
         <f t="shared" si="3"/>
         <v>0.88145708994708993</v>
       </c>
-      <c r="J26" s="59"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="J26" s="57"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="86">
+      <c r="C27" s="84">
         <v>43622</v>
       </c>
-      <c r="D27" s="86"/>
-      <c r="E27" s="92">
+      <c r="D27" s="84"/>
+      <c r="E27" s="90">
         <v>1217856</v>
       </c>
-      <c r="F27" s="92">
+      <c r="F27" s="90">
         <v>1305233</v>
       </c>
-      <c r="G27" s="83">
+      <c r="G27" s="81">
         <f>F27/A24</f>
         <v>6.9059947089947088E-2</v>
       </c>
-      <c r="H27" s="89">
+      <c r="H27" s="87">
         <f t="shared" si="3"/>
         <v>15354306</v>
       </c>
-      <c r="I27" s="70">
+      <c r="I27" s="68">
         <f t="shared" si="3"/>
         <v>0.81239714285714282</v>
       </c>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
-      <c r="B28" s="86" t="s">
+      <c r="B28" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="86">
+      <c r="C28" s="84">
         <v>43635</v>
       </c>
-      <c r="D28" s="86"/>
-      <c r="E28" s="91">
+      <c r="D28" s="84"/>
+      <c r="E28" s="89">
         <v>1523084</v>
       </c>
-      <c r="F28" s="91">
+      <c r="F28" s="89">
         <v>1651620</v>
       </c>
-      <c r="G28" s="83">
+      <c r="G28" s="81">
         <f>F28/A24</f>
         <v>8.7387301587301583E-2</v>
       </c>
-      <c r="H28" s="89">
+      <c r="H28" s="87">
         <f t="shared" si="3"/>
         <v>13702686</v>
       </c>
-      <c r="I28" s="70">
+      <c r="I28" s="68">
         <f t="shared" si="3"/>
         <v>0.72500984126984125</v>
       </c>
-      <c r="J28" s="59"/>
-      <c r="K28" s="60"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="86">
+      <c r="C29" s="84">
         <v>43676</v>
       </c>
-      <c r="D29" s="86"/>
-      <c r="E29" s="91">
+      <c r="D29" s="84"/>
+      <c r="E29" s="89">
         <v>1673968</v>
       </c>
-      <c r="F29" s="91">
+      <c r="F29" s="89">
         <v>1758757</v>
       </c>
-      <c r="G29" s="83">
+      <c r="G29" s="81">
         <f>F29/A24</f>
         <v>9.3055925925925931E-2</v>
       </c>
-      <c r="H29" s="89">
+      <c r="H29" s="87">
         <f t="shared" si="3"/>
         <v>11943929</v>
       </c>
-      <c r="I29" s="70">
+      <c r="I29" s="68">
         <f t="shared" si="3"/>
         <v>0.63195391534391532</v>
       </c>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="86"/>
-      <c r="E30" s="91">
+      <c r="D30" s="84"/>
+      <c r="E30" s="89">
         <v>236928</v>
       </c>
-      <c r="F30" s="91">
+      <c r="F30" s="89">
         <v>247948</v>
       </c>
-      <c r="G30" s="83">
+      <c r="G30" s="81">
         <f>F30/A$24</f>
         <v>1.3118941798941798E-2</v>
       </c>
-      <c r="H30" s="89">
+      <c r="H30" s="87">
         <f t="shared" si="3"/>
         <v>11695981</v>
       </c>
-      <c r="I30" s="70">
+      <c r="I30" s="68">
         <f t="shared" si="3"/>
         <v>0.61883497354497352</v>
       </c>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="86">
+      <c r="C31" s="84">
         <v>43684</v>
       </c>
-      <c r="D31" s="86" t="s">
+      <c r="D31" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="91">
+      <c r="E31" s="89">
         <v>914768</v>
       </c>
-      <c r="F31" s="91">
+      <c r="F31" s="89">
         <v>991587</v>
       </c>
-      <c r="G31" s="83">
+      <c r="G31" s="81">
         <f>F31/$A$24</f>
         <v>5.2464920634920635E-2</v>
       </c>
-      <c r="H31" s="89">
+      <c r="H31" s="87">
         <f t="shared" ref="H31" si="4">H30-F31</f>
         <v>10704394</v>
       </c>
-      <c r="I31" s="70">
+      <c r="I31" s="68">
         <f t="shared" ref="I31" si="5">I30-G31</f>
         <v>0.56637005291005293</v>
       </c>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="86">
+      <c r="C32" s="84">
         <v>43692</v>
       </c>
-      <c r="D32" s="86">
+      <c r="D32" s="84">
         <v>43711</v>
       </c>
-      <c r="E32" s="92">
+      <c r="E32" s="90">
         <v>792024</v>
       </c>
-      <c r="F32" s="91">
+      <c r="F32" s="89">
         <v>978661</v>
       </c>
-      <c r="G32" s="83">
+      <c r="G32" s="81">
         <f>F32/$A$24</f>
         <v>5.1781005291005294E-2</v>
       </c>
-      <c r="H32" s="89">
+      <c r="H32" s="87">
         <f t="shared" ref="H32" si="6">H31-F32</f>
         <v>9725733</v>
       </c>
-      <c r="I32" s="70">
+      <c r="I32" s="68">
         <f t="shared" ref="I32" si="7">I31-G32</f>
         <v>0.51458904761904767</v>
       </c>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
+      <c r="B33" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="84">
+        <v>43945</v>
+      </c>
+      <c r="D33" s="84">
+        <v>43958</v>
+      </c>
+      <c r="E33" s="90">
+        <v>1038688</v>
+      </c>
+      <c r="F33" s="89">
+        <v>1088892</v>
+      </c>
+      <c r="G33" s="81">
+        <f>F33/$A$24</f>
+        <v>5.7613333333333336E-2</v>
+      </c>
+      <c r="H33" s="87">
+        <f t="shared" ref="H33" si="8">H32-F33</f>
+        <v>8636841</v>
+      </c>
+      <c r="I33" s="68">
+        <f t="shared" ref="I33" si="9">I32-G33</f>
+        <v>0.45697571428571432</v>
+      </c>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
+      <c r="B34" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="91">
+        <v>43951</v>
+      </c>
+      <c r="D34" s="91">
+        <v>43958</v>
+      </c>
+      <c r="E34" s="93">
+        <v>807312</v>
+      </c>
+      <c r="F34" s="94">
+        <v>849914</v>
+      </c>
+      <c r="G34" s="81">
+        <f>F34/$A$24</f>
+        <v>4.4968994708994708E-2</v>
+      </c>
+      <c r="H34" s="87">
+        <f t="shared" ref="H34" si="10">H33-F34</f>
+        <v>7786927</v>
+      </c>
+      <c r="I34" s="68">
+        <f t="shared" ref="I34" si="11">I33-G34</f>
+        <v>0.41200671957671964</v>
+      </c>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="13.8" thickBot="1">
+    <row r="36" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="70"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="68"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" ht="13.8" thickBot="1">
+    <row r="37" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="46">
+      <c r="E37" s="111">
         <f>SUM(E24:E36)</f>
-        <v>8320286</v>
-      </c>
-      <c r="F37" s="45">
+        <v>10166286</v>
+      </c>
+      <c r="F37" s="112">
         <f>SUM(F24:F36)</f>
-        <v>9174267</v>
+        <v>11113073</v>
       </c>
       <c r="G37" s="20">
         <f>SUM(G24:G36)</f>
-        <v>0.48541095238095233</v>
+        <v>0.58799328042328036</v>
       </c>
       <c r="H37" s="18">
         <f>A24-F37</f>
-        <v>9725733</v>
+        <v>7786927</v>
       </c>
       <c r="I37" s="22">
         <f>1-G37</f>
-        <v>0.51458904761904767</v>
-      </c>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-    </row>
-    <row r="40" spans="1:12">
+        <v>0.41200671957671964</v>
+      </c>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2345,13 +2435,13 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A41" s="103" t="s">
+    <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2359,11 +2449,11 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="112" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="112"/>
+      <c r="B42" s="104"/>
       <c r="C42" s="10" t="s">
         <v>14</v>
       </c>
@@ -2377,32 +2467,32 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="110">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="102">
         <f>A24-F37</f>
-        <v>9725733</v>
-      </c>
-      <c r="B43" s="111"/>
-      <c r="C43" s="65">
+        <v>7786927</v>
+      </c>
+      <c r="B43" s="103"/>
+      <c r="C43" s="63">
         <f>1-G37</f>
-        <v>0.51458904761904767</v>
+        <v>0.41200671957671964</v>
       </c>
       <c r="D43" s="19">
         <f>(C43/0.8)*100</f>
-        <v>64.323630952380952</v>
-      </c>
-      <c r="E43" s="88" t="s">
+        <v>51.50083994708995</v>
+      </c>
+      <c r="E43" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2410,7 +2500,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2425,7 +2515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.6">
+    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2437,157 +2527,157 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="109"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="48"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="101"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="46"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="49"/>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="48"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="49"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="48"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="47"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="46"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="47"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="46"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="49"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="48"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="49"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="48"/>
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="47"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="46"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="47"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="46"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="49"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="48"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="48"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="49"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="48"/>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="49"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="48"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="47"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="46"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="49"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="49"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="46"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="47"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="46"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="47"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="47"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="46"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="49"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.6">
+      <c r="F56" s="47"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="47"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="105"/>
-      <c r="C57" s="105"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="53"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="108"/>
+      <c r="D57" s="109"/>
+      <c r="E57" s="51"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="108"/>
-      <c r="J58" s="109"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="48"/>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="101"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="46"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="104"/>
-      <c r="J59" s="104"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="105"/>
+      <c r="J59" s="105"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="46"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="104"/>
-      <c r="J60" s="104"/>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="D60" s="49"/>
+      <c r="E60" s="49"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="49"/>
+      <c r="H60" s="49"/>
+      <c r="I60" s="105"/>
+      <c r="J60" s="105"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2597,19 +2687,24 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="108"/>
-      <c r="C66" s="109"/>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="108"/>
-      <c r="C73" s="109"/>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="100"/>
+      <c r="C66" s="101"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" s="100"/>
+      <c r="C73" s="101"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A42:B42"/>
@@ -2617,16 +2712,11 @@
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="I59:J59"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="43" max="12" man="1"/>
@@ -2635,12 +2725,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2649,24 +2739,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 1,5 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 1,5 л.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Александр Гавриленко\Работа\vedatranzit\Участок ремонта форм\Формокомплекты\Паспорта\Банки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Банки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F7D025-0F6F-4B35-AC1A-709F7AB89968}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F37D96-A428-4D6D-81B8-7CF40B46C0EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>№Поз</t>
   </si>
@@ -118,9 +118,6 @@
     <t xml:space="preserve">Выработка формо-комплекта            в ,% </t>
   </si>
   <si>
-    <t>Кол-во         непригодных,      шт</t>
-  </si>
-  <si>
     <t>Фактически пригодных деталей,    шт</t>
   </si>
   <si>
@@ -151,21 +148,9 @@
     <t>Хватки СКО</t>
   </si>
   <si>
-    <t>Хватки TVIST</t>
-  </si>
-  <si>
-    <t>Горловое кольцо TVIST</t>
-  </si>
-  <si>
-    <t>Плунжер TVIST</t>
-  </si>
-  <si>
     <t>Плунжер СКО</t>
   </si>
   <si>
-    <t>Пресс-кольцо TVIST</t>
-  </si>
-  <si>
     <t>Пресс-кольцо СКО</t>
   </si>
   <si>
@@ -218,6 +203,24 @@
   </si>
   <si>
     <t>25.04.2020 Twist</t>
+  </si>
+  <si>
+    <t>Горловое кольцо TWIST</t>
+  </si>
+  <si>
+    <t>Плунжер TWIST</t>
+  </si>
+  <si>
+    <t>Пресс-кольцо TWIST</t>
+  </si>
+  <si>
+    <t>Хватки TWIST</t>
+  </si>
+  <si>
+    <t>Кол-во непригодных, шт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вес (ном. вес </t>
   </si>
 </sst>
 </file>
@@ -776,7 +779,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1027,6 +1030,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1052,10 +1061,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1398,15 +1407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
@@ -1415,35 +1424,35 @@
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
+      <c r="A1" s="108" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="110" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
+      <c r="A2" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
       <c r="F2" s="23"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -1474,19 +1483,19 @@
         <v>2</v>
       </c>
       <c r="D4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>32</v>
-      </c>
       <c r="F4" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="H4" s="27" t="s">
         <v>29</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>30</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>3</v>
@@ -1495,7 +1504,7 @@
         <v>22</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="27" t="s">
         <v>4</v>
@@ -1509,7 +1518,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="96" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D5" s="36">
         <v>27</v>
@@ -1537,7 +1546,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D6" s="9">
         <v>27</v>
@@ -1565,7 +1574,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D7" s="9">
         <v>34</v>
@@ -1573,10 +1582,12 @@
       <c r="E7" s="9">
         <v>34</v>
       </c>
-      <c r="F7" s="65"/>
+      <c r="F7" s="65">
+        <v>1</v>
+      </c>
       <c r="G7" s="9">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="44"/>
       <c r="I7" s="40"/>
@@ -1593,7 +1604,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D8" s="9">
         <v>34</v>
@@ -1618,10 +1629,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="9">
         <v>120</v>
@@ -1629,10 +1640,12 @@
       <c r="E9" s="9">
         <v>120</v>
       </c>
-      <c r="F9" s="65"/>
+      <c r="F9" s="65">
+        <v>4</v>
+      </c>
       <c r="G9" s="9">
         <f t="shared" ref="G9:G20" si="2">E9-F9</f>
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H9" s="44"/>
       <c r="I9" s="41"/>
@@ -1646,10 +1659,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D10" s="9">
         <v>120</v>
@@ -1657,10 +1670,12 @@
       <c r="E10" s="9">
         <v>120</v>
       </c>
-      <c r="F10" s="65"/>
+      <c r="F10" s="65">
+        <v>11</v>
+      </c>
       <c r="G10" s="9">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="H10" s="44"/>
       <c r="I10" s="41"/>
@@ -1677,7 +1692,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D11" s="9">
         <v>24</v>
@@ -1702,10 +1717,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D12" s="9">
         <v>24</v>
@@ -1730,10 +1745,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D13" s="9">
         <v>25</v>
@@ -1762,7 +1777,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D14" s="11">
         <v>8</v>
@@ -1788,10 +1803,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D15" s="9">
         <v>80</v>
@@ -1799,10 +1814,12 @@
       <c r="E15" s="9">
         <v>80</v>
       </c>
-      <c r="F15" s="65"/>
+      <c r="F15" s="65">
+        <v>27</v>
+      </c>
       <c r="G15" s="9">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="H15" s="44" t="s">
         <v>25</v>
@@ -1818,10 +1835,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D16" s="9">
         <v>80</v>
@@ -1829,10 +1846,12 @@
       <c r="E16" s="9">
         <v>80</v>
       </c>
-      <c r="F16" s="65"/>
+      <c r="F16" s="65">
+        <v>19</v>
+      </c>
       <c r="G16" s="9">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="H16" s="44"/>
       <c r="I16" s="41"/>
@@ -1846,10 +1865,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D17" s="9">
         <v>240</v>
@@ -1857,10 +1876,12 @@
       <c r="E17" s="9">
         <v>240</v>
       </c>
-      <c r="F17" s="65"/>
+      <c r="F17" s="65">
+        <v>40</v>
+      </c>
       <c r="G17" s="9">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="H17" s="44"/>
       <c r="I17" s="41"/>
@@ -1874,10 +1895,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D18" s="72">
         <v>240</v>
@@ -1885,10 +1906,12 @@
       <c r="E18" s="72">
         <v>240</v>
       </c>
-      <c r="F18" s="73"/>
+      <c r="F18" s="73">
+        <v>49</v>
+      </c>
       <c r="G18" s="72">
         <f t="shared" si="2"/>
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="H18" s="74"/>
       <c r="I18" s="75"/>
@@ -1902,10 +1925,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D19" s="72">
         <v>20</v>
@@ -1913,10 +1936,12 @@
       <c r="E19" s="72">
         <v>20</v>
       </c>
-      <c r="F19" s="73"/>
+      <c r="F19" s="73">
+        <v>1</v>
+      </c>
       <c r="G19" s="72">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" s="74"/>
       <c r="I19" s="75"/>
@@ -1930,10 +1955,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C20" s="97" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D20" s="38">
         <v>20</v>
@@ -2008,7 +2033,9 @@
       <c r="I23" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="56"/>
+      <c r="J23" s="33" t="s">
+        <v>62</v>
+      </c>
       <c r="K23" s="56"/>
       <c r="L23" s="56"/>
     </row>
@@ -2018,7 +2045,7 @@
         <v>18900000</v>
       </c>
       <c r="B24" s="79" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C24" s="80">
         <v>43581</v>
@@ -2042,14 +2069,14 @@
         <f>1-G24</f>
         <v>0.95021650793650791</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="113"/>
       <c r="K24" s="49"/>
       <c r="L24" s="49"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="82"/>
       <c r="B25" s="83" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C25" s="83">
         <v>43587</v>
@@ -2066,21 +2093,21 @@
         <v>3.7257142857142857E-2</v>
       </c>
       <c r="H25" s="87">
-        <f t="shared" ref="H25:I30" si="3">H24-F25</f>
+        <f t="shared" ref="H25:J30" si="3">H24-F25</f>
         <v>17254932</v>
       </c>
       <c r="I25" s="68">
         <f t="shared" si="3"/>
         <v>0.91295936507936504</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="J25" s="113"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="84" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C26" s="84">
         <v>43616</v>
@@ -2104,14 +2131,14 @@
         <f t="shared" si="3"/>
         <v>0.88145708994708993</v>
       </c>
-      <c r="J26" s="57"/>
+      <c r="J26" s="113"/>
       <c r="K26" s="49"/>
       <c r="L26" s="49"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="85" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C27" s="84">
         <v>43622</v>
@@ -2135,14 +2162,14 @@
         <f t="shared" si="3"/>
         <v>0.81239714285714282</v>
       </c>
-      <c r="J27" s="57"/>
+      <c r="J27" s="113"/>
       <c r="K27" s="57"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
       <c r="B28" s="84" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C28" s="84">
         <v>43635</v>
@@ -2166,14 +2193,14 @@
         <f t="shared" si="3"/>
         <v>0.72500984126984125</v>
       </c>
-      <c r="J28" s="57"/>
+      <c r="J28" s="113"/>
       <c r="K28" s="58"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="84" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C29" s="84">
         <v>43676</v>
@@ -2197,17 +2224,17 @@
         <f t="shared" si="3"/>
         <v>0.63195391534391532</v>
       </c>
-      <c r="J29" s="57"/>
+      <c r="J29" s="113"/>
       <c r="K29" s="57"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
       <c r="B30" s="84" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C30" s="84" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D30" s="84"/>
       <c r="E30" s="89">
@@ -2228,20 +2255,20 @@
         <f t="shared" si="3"/>
         <v>0.61883497354497352</v>
       </c>
-      <c r="J30" s="57"/>
+      <c r="J30" s="113"/>
       <c r="K30" s="57"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
       <c r="B31" s="84" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C31" s="84">
         <v>43684</v>
       </c>
       <c r="D31" s="84" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E31" s="89">
         <v>914768</v>
@@ -2258,17 +2285,17 @@
         <v>10704394</v>
       </c>
       <c r="I31" s="68">
-        <f t="shared" ref="I31" si="5">I30-G31</f>
+        <f t="shared" ref="I31:J31" si="5">I30-G31</f>
         <v>0.56637005291005293</v>
       </c>
-      <c r="J31" s="57"/>
+      <c r="J31" s="113"/>
       <c r="K31" s="57"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="84" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C32" s="84">
         <v>43692</v>
@@ -2291,17 +2318,17 @@
         <v>9725733</v>
       </c>
       <c r="I32" s="68">
-        <f t="shared" ref="I32" si="7">I31-G32</f>
+        <f t="shared" ref="I32:J32" si="7">I31-G32</f>
         <v>0.51458904761904767</v>
       </c>
-      <c r="J32" s="57"/>
+      <c r="J32" s="113"/>
       <c r="K32" s="57"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="84" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C33" s="84">
         <v>43945</v>
@@ -2324,20 +2351,20 @@
         <v>8636841</v>
       </c>
       <c r="I33" s="68">
-        <f t="shared" ref="I33" si="9">I32-G33</f>
+        <f t="shared" ref="I33:J33" si="9">I32-G33</f>
         <v>0.45697571428571432</v>
       </c>
-      <c r="J33" s="57"/>
+      <c r="J33" s="113"/>
       <c r="K33" s="57"/>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="14"/>
       <c r="B34" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="91">
-        <v>43951</v>
+        <v>56</v>
+      </c>
+      <c r="C34" s="91" t="s">
+        <v>51</v>
       </c>
       <c r="D34" s="91">
         <v>43958</v>
@@ -2357,28 +2384,49 @@
         <v>7786927</v>
       </c>
       <c r="I34" s="68">
-        <f t="shared" ref="I34" si="11">I33-G34</f>
+        <f t="shared" ref="I34:J34" si="11">I33-G34</f>
         <v>0.41200671957671964</v>
       </c>
-      <c r="J34" s="57"/>
+      <c r="J34" s="113"/>
       <c r="K34" s="57"/>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="57"/>
+      <c r="B35" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="91">
+        <v>43952</v>
+      </c>
+      <c r="D35" s="91">
+        <v>43972</v>
+      </c>
+      <c r="E35" s="93">
+        <v>132864</v>
+      </c>
+      <c r="F35" s="94">
+        <v>141152</v>
+      </c>
+      <c r="G35" s="81">
+        <f>F35/$A$24</f>
+        <v>7.468359788359788E-3</v>
+      </c>
+      <c r="H35" s="87">
+        <f t="shared" ref="H35" si="12">H34-F35</f>
+        <v>7645775</v>
+      </c>
+      <c r="I35" s="68">
+        <f t="shared" ref="I35:J35" si="13">I34-G35</f>
+        <v>0.40453835978835984</v>
+      </c>
+      <c r="J35" s="113">
+        <v>582</v>
+      </c>
       <c r="K35" s="57"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="91"/>
       <c r="C36" s="91"/>
@@ -2388,109 +2436,96 @@
       <c r="G36" s="81"/>
       <c r="H36" s="87"/>
       <c r="I36" s="68"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="57"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="14"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="1"/>
+    </row>
+    <row r="40" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="111">
-        <f>SUM(E24:E36)</f>
-        <v>10166286</v>
-      </c>
-      <c r="F37" s="112">
-        <f>SUM(F24:F36)</f>
-        <v>11113073</v>
-      </c>
-      <c r="G37" s="20">
-        <f>SUM(G24:G36)</f>
-        <v>0.58799328042328036</v>
-      </c>
-      <c r="H37" s="18">
-        <f>A24-F37</f>
-        <v>7786927</v>
-      </c>
-      <c r="I37" s="22">
-        <f>1-G37</f>
-        <v>0.41200671957671964</v>
-      </c>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="107" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" s="104" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" s="104"/>
-      <c r="C42" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" s="102">
-        <f>A24-F37</f>
-        <v>7786927</v>
-      </c>
-      <c r="B43" s="103"/>
-      <c r="C43" s="63">
-        <f>1-G37</f>
-        <v>0.41200671957671964</v>
-      </c>
-      <c r="D43" s="19">
-        <f>(C43/0.8)*100</f>
-        <v>51.50083994708995</v>
-      </c>
-      <c r="E43" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="100">
+        <f>SUM(E24:E40)</f>
+        <v>10299150</v>
+      </c>
+      <c r="F41" s="101">
+        <f>SUM(F24:F40)</f>
+        <v>11254225</v>
+      </c>
+      <c r="G41" s="20">
+        <f>SUM(G24:G40)</f>
+        <v>0.59546164021164016</v>
+      </c>
+      <c r="H41" s="18">
+        <f>A24-F41</f>
+        <v>7645775</v>
+      </c>
+      <c r="I41" s="22">
+        <f>1-G41</f>
+        <v>0.40453835978835984</v>
+      </c>
+      <c r="J41" s="114"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
@@ -2499,27 +2534,36 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="109"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="109"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" s="106"/>
+      <c r="C46" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2528,58 +2572,78 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="101"/>
+      <c r="A47" s="104">
+        <f>A24-F41</f>
+        <v>7645775</v>
+      </c>
+      <c r="B47" s="105"/>
+      <c r="C47" s="63">
+        <f>1-G41</f>
+        <v>0.40453835978835984</v>
+      </c>
+      <c r="D47" s="19">
+        <f>(C47/0.8)*100</f>
+        <v>50.567294973544975</v>
+      </c>
+      <c r="E47" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="46"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="47"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="46"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="47"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="46"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="47"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="46"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="47"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="102"/>
+      <c r="J51" s="103"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="46"/>
       <c r="B52" s="47"/>
       <c r="C52" s="47"/>
@@ -2589,27 +2653,27 @@
       <c r="G52" s="48"/>
       <c r="H52" s="47"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="46"/>
       <c r="B53" s="47"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="47"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="46"/>
       <c r="B54" s="47"/>
       <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
       <c r="F54" s="47"/>
       <c r="G54" s="48"/>
       <c r="H54" s="47"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="46"/>
       <c r="B55" s="47"/>
       <c r="C55" s="47"/>
@@ -2619,7 +2683,7 @@
       <c r="G55" s="48"/>
       <c r="H55" s="47"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="46"/>
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
@@ -2629,71 +2693,111 @@
       <c r="G56" s="48"/>
       <c r="H56" s="47"/>
     </row>
-    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="108"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="109"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="45"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="100"/>
-      <c r="J58" s="101"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="46"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="49"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="46"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="47"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="46"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="48"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
       <c r="G59" s="48"/>
       <c r="H59" s="47"/>
-      <c r="I59" s="105"/>
-      <c r="J59" s="105"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="46"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="105"/>
-      <c r="J60" s="105"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="47"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="B61" s="110"/>
+      <c r="C61" s="110"/>
+      <c r="D61" s="111"/>
+      <c r="E61" s="51"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B66" s="100"/>
-      <c r="C66" s="101"/>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B73" s="100"/>
-      <c r="C73" s="101"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="102"/>
+      <c r="J62" s="103"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="46"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="107"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="46"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="49"/>
+      <c r="H64" s="49"/>
+      <c r="I64" s="107"/>
+      <c r="J64" s="107"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="102"/>
+      <c r="C70" s="103"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B77" s="102"/>
+      <c r="C77" s="103"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
@@ -2701,25 +2805,25 @@
   </sortState>
   <mergeCells count="12">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="B61:D61"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="83" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="43" max="12" man="1"/>
+    <brk id="47" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 1,5 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 1,5 л.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Банки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F37D96-A428-4D6D-81B8-7CF40B46C0EB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB94E3FD-B3BF-4000-8E39-B04ED801BC84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1036,6 +1036,26 @@
     <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1045,26 +1065,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1409,14 +1409,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -1430,29 +1430,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="23"/>
       <c r="G2" s="3"/>
       <c r="H2" s="4"/>
@@ -2069,7 +2069,7 @@
         <f>1-G24</f>
         <v>0.95021650793650791</v>
       </c>
-      <c r="J24" s="113"/>
+      <c r="J24" s="102"/>
       <c r="K24" s="49"/>
       <c r="L24" s="49"/>
     </row>
@@ -2093,14 +2093,14 @@
         <v>3.7257142857142857E-2</v>
       </c>
       <c r="H25" s="87">
-        <f t="shared" ref="H25:J30" si="3">H24-F25</f>
+        <f t="shared" ref="H25:I30" si="3">H24-F25</f>
         <v>17254932</v>
       </c>
       <c r="I25" s="68">
         <f t="shared" si="3"/>
         <v>0.91295936507936504</v>
       </c>
-      <c r="J25" s="113"/>
+      <c r="J25" s="102"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
@@ -2131,7 +2131,7 @@
         <f t="shared" si="3"/>
         <v>0.88145708994708993</v>
       </c>
-      <c r="J26" s="113"/>
+      <c r="J26" s="102"/>
       <c r="K26" s="49"/>
       <c r="L26" s="49"/>
     </row>
@@ -2162,7 +2162,7 @@
         <f t="shared" si="3"/>
         <v>0.81239714285714282</v>
       </c>
-      <c r="J27" s="113"/>
+      <c r="J27" s="102"/>
       <c r="K27" s="57"/>
       <c r="L27" s="1"/>
     </row>
@@ -2193,7 +2193,7 @@
         <f t="shared" si="3"/>
         <v>0.72500984126984125</v>
       </c>
-      <c r="J28" s="113"/>
+      <c r="J28" s="102"/>
       <c r="K28" s="58"/>
       <c r="L28" s="1"/>
     </row>
@@ -2224,7 +2224,7 @@
         <f t="shared" si="3"/>
         <v>0.63195391534391532</v>
       </c>
-      <c r="J29" s="113"/>
+      <c r="J29" s="102"/>
       <c r="K29" s="57"/>
       <c r="L29" s="1"/>
     </row>
@@ -2255,7 +2255,7 @@
         <f t="shared" si="3"/>
         <v>0.61883497354497352</v>
       </c>
-      <c r="J30" s="113"/>
+      <c r="J30" s="102"/>
       <c r="K30" s="57"/>
       <c r="L30" s="1"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>10704394</v>
       </c>
       <c r="I31" s="68">
-        <f t="shared" ref="I31:J31" si="5">I30-G31</f>
+        <f t="shared" ref="I31" si="5">I30-G31</f>
         <v>0.56637005291005293</v>
       </c>
-      <c r="J31" s="113"/>
+      <c r="J31" s="102"/>
       <c r="K31" s="57"/>
       <c r="L31" s="1"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>9725733</v>
       </c>
       <c r="I32" s="68">
-        <f t="shared" ref="I32:J32" si="7">I31-G32</f>
+        <f t="shared" ref="I32" si="7">I31-G32</f>
         <v>0.51458904761904767</v>
       </c>
-      <c r="J32" s="113"/>
+      <c r="J32" s="102"/>
       <c r="K32" s="57"/>
       <c r="L32" s="1"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>8636841</v>
       </c>
       <c r="I33" s="68">
-        <f t="shared" ref="I33:J33" si="9">I32-G33</f>
+        <f t="shared" ref="I33" si="9">I32-G33</f>
         <v>0.45697571428571432</v>
       </c>
-      <c r="J33" s="113"/>
+      <c r="J33" s="102"/>
       <c r="K33" s="57"/>
       <c r="L33" s="1"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>7786927</v>
       </c>
       <c r="I34" s="68">
-        <f t="shared" ref="I34:J34" si="11">I33-G34</f>
+        <f t="shared" ref="I34" si="11">I33-G34</f>
         <v>0.41200671957671964</v>
       </c>
-      <c r="J34" s="113"/>
+      <c r="J34" s="102"/>
       <c r="K34" s="57"/>
       <c r="L34" s="1"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>7645775</v>
       </c>
       <c r="I35" s="68">
-        <f t="shared" ref="I35:J35" si="13">I34-G35</f>
+        <f t="shared" ref="I35" si="13">I34-G35</f>
         <v>0.40453835978835984</v>
       </c>
-      <c r="J35" s="113">
+      <c r="J35" s="102">
         <v>582</v>
       </c>
       <c r="K35" s="57"/>
@@ -2436,7 +2436,7 @@
       <c r="G36" s="81"/>
       <c r="H36" s="87"/>
       <c r="I36" s="68"/>
-      <c r="J36" s="113"/>
+      <c r="J36" s="102"/>
       <c r="K36" s="57"/>
       <c r="L36" s="1"/>
     </row>
@@ -2450,7 +2450,7 @@
       <c r="G37" s="81"/>
       <c r="H37" s="87"/>
       <c r="I37" s="68"/>
-      <c r="J37" s="113"/>
+      <c r="J37" s="102"/>
       <c r="K37" s="57"/>
       <c r="L37" s="1"/>
     </row>
@@ -2464,7 +2464,7 @@
       <c r="G38" s="81"/>
       <c r="H38" s="87"/>
       <c r="I38" s="68"/>
-      <c r="J38" s="113"/>
+      <c r="J38" s="102"/>
       <c r="K38" s="57"/>
       <c r="L38" s="1"/>
     </row>
@@ -2478,7 +2478,7 @@
       <c r="G39" s="81"/>
       <c r="H39" s="87"/>
       <c r="I39" s="68"/>
-      <c r="J39" s="113"/>
+      <c r="J39" s="102"/>
       <c r="K39" s="57"/>
       <c r="L39" s="1"/>
     </row>
@@ -2492,7 +2492,7 @@
       <c r="G40" s="81"/>
       <c r="H40" s="87"/>
       <c r="I40" s="68"/>
-      <c r="J40" s="113"/>
+      <c r="J40" s="102"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
@@ -2523,7 +2523,7 @@
         <f>1-G41</f>
         <v>0.40453835978835984</v>
       </c>
-      <c r="J41" s="114"/>
+      <c r="J41" s="103"/>
       <c r="K41" s="59"/>
       <c r="L41" s="59"/>
     </row>
@@ -2540,12 +2540,12 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="109" t="s">
+      <c r="A45" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="109"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -2554,10 +2554,10 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="106" t="s">
+      <c r="A46" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="106"/>
+      <c r="B46" s="114"/>
       <c r="C46" s="10" t="s">
         <v>14</v>
       </c>
@@ -2572,11 +2572,11 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="104">
+      <c r="A47" s="112">
         <f>A24-F41</f>
         <v>7645775</v>
       </c>
-      <c r="B47" s="105"/>
+      <c r="B47" s="113"/>
       <c r="C47" s="63">
         <f>1-G41</f>
         <v>0.40453835978835984</v>
@@ -2640,8 +2640,8 @@
       <c r="F51" s="45"/>
       <c r="G51" s="45"/>
       <c r="H51" s="45"/>
-      <c r="I51" s="102"/>
-      <c r="J51" s="103"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="111"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="46"/>
@@ -2735,9 +2735,9 @@
     </row>
     <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="110"/>
-      <c r="C61" s="110"/>
-      <c r="D61" s="111"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="108"/>
       <c r="E61" s="51"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -2754,8 +2754,8 @@
       <c r="F62" s="45"/>
       <c r="G62" s="45"/>
       <c r="H62" s="45"/>
-      <c r="I62" s="102"/>
-      <c r="J62" s="103"/>
+      <c r="I62" s="110"/>
+      <c r="J62" s="111"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="46"/>
@@ -2766,8 +2766,8 @@
       <c r="F63" s="48"/>
       <c r="G63" s="48"/>
       <c r="H63" s="47"/>
-      <c r="I63" s="107"/>
-      <c r="J63" s="107"/>
+      <c r="I63" s="106"/>
+      <c r="J63" s="106"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="46"/>
@@ -2778,8 +2778,8 @@
       <c r="F64" s="49"/>
       <c r="G64" s="49"/>
       <c r="H64" s="49"/>
-      <c r="I64" s="107"/>
-      <c r="J64" s="107"/>
+      <c r="I64" s="106"/>
+      <c r="J64" s="106"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
@@ -2792,23 +2792,18 @@
       <c r="H65" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B70" s="102"/>
-      <c r="C70" s="103"/>
+      <c r="B70" s="110"/>
+      <c r="C70" s="111"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="102"/>
-      <c r="C77" s="103"/>
+      <c r="B77" s="110"/>
+      <c r="C77" s="111"/>
     </row>
   </sheetData>
   <sortState ref="B9:G15">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A46:B46"/>
@@ -2816,6 +2811,11 @@
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I62:J62"/>
     <mergeCell ref="I63:J63"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 1,5 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 1,5 л.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Банки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB94E3FD-B3BF-4000-8E39-B04ED801BC84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D52C633-72AB-4DFA-BF07-F927A62834CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$L$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$J$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>№Поз</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Маркировка</t>
   </si>
   <si>
-    <t>Кол-во,  шт</t>
-  </si>
-  <si>
-    <t>Остаток, шт</t>
-  </si>
-  <si>
     <t>Черновая форма</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
     <t>Остаточный ресурс формо-комплекта, шт.</t>
   </si>
   <si>
-    <t>Марки-ровка</t>
-  </si>
-  <si>
     <t>Остаточный ресурс формо-комплекта, %.</t>
   </si>
   <si>
@@ -130,9 +121,6 @@
     <t>Фактическое количество деталей по акту приемки, шт.</t>
   </si>
   <si>
-    <t>Кол-во брака, шт</t>
-  </si>
-  <si>
     <t>Охладитель плунжера</t>
   </si>
   <si>
@@ -193,9 +181,6 @@
     <t>03/09/219</t>
   </si>
   <si>
-    <t>Формокомплект банки 1,5 л тип I-82-1500-1, тип III-2-82-1500-1 (владелец ООО "ВЕДАТРАНЗИТ" Договор аренды имущества №3 от 23.01.2019 г.)</t>
-  </si>
-  <si>
     <t>08.08.2019 СКО</t>
   </si>
   <si>
@@ -220,7 +205,43 @@
     <t>Кол-во непригодных, шт</t>
   </si>
   <si>
-    <t xml:space="preserve">Вес (ном. вес </t>
+    <t>Вес (ном. вес 555 г.)</t>
+  </si>
+  <si>
+    <t>14.07.2020 twist</t>
+  </si>
+  <si>
+    <t>15/07/2020 СКО</t>
+  </si>
+  <si>
+    <t>24.07.2020 twist</t>
+  </si>
+  <si>
+    <t>22/08/2020 СКО</t>
+  </si>
+  <si>
+    <t>27.08.2020 twist</t>
+  </si>
+  <si>
+    <t>22.02.2021 twist</t>
+  </si>
+  <si>
+    <t>26/02/2021 СКО</t>
+  </si>
+  <si>
+    <t>26/04/2021 СКО</t>
+  </si>
+  <si>
+    <t>Формокомплект банки 1,5 л тип I-82-1500-1, тип III-2-82-1500-1</t>
+  </si>
+  <si>
+    <t>(владелец ООО "ВЕДАТРАНЗИТ" Договор аренды имущества №3 от 23.01.2019 г.)</t>
+  </si>
+  <si>
+    <t>30.04.2021 twist</t>
+  </si>
+  <si>
+    <t>05/05/2021 СКО</t>
   </si>
 </sst>
 </file>
@@ -234,7 +255,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -345,6 +366,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -372,7 +399,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -396,21 +423,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -495,35 +507,7 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -670,77 +654,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -765,6 +680,43 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -779,7 +731,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -801,26 +753,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -829,62 +781,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -920,69 +848,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -994,8 +898,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1007,40 +911,82 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1058,10 +1004,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1407,15 +1353,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
@@ -1430,297 +1376,279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="24"/>
+      <c r="A1" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="88"/>
+      <c r="B2" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
       <c r="K3" s="24"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="26" t="s">
+      <c r="D5" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="34">
+      <c r="F5" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="99"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="32">
         <v>1</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="36">
+      <c r="B6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="34">
         <v>27</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E6" s="34">
         <v>27</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="36">
-        <f>E5-F5</f>
-        <v>27</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="60"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="37">
-        <f>A5+1</f>
+      <c r="F6" s="54">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="9">
-        <v>27</v>
-      </c>
-      <c r="E6" s="9">
-        <v>27</v>
-      </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="9">
-        <f t="shared" ref="G6:G8" si="0">E6-F6</f>
-        <v>27</v>
-      </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="61"/>
+      <c r="G6" s="34">
+        <f>E6-F6</f>
+        <v>25</v>
+      </c>
+      <c r="H6" s="92"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="98"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="37">
-        <f t="shared" ref="A7:A20" si="1">A6+1</f>
-        <v>3</v>
+      <c r="A7" s="35">
+        <f>A6+1</f>
+        <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="78" t="s">
-        <v>41</v>
+      <c r="C7" s="62" t="s">
+        <v>37</v>
       </c>
       <c r="D7" s="9">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9">
+        <v>27</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="9">
+        <f t="shared" ref="G7:G9" si="0">E7-F7</f>
+        <v>27</v>
+      </c>
+      <c r="H7" s="93"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="98"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="35">
+        <f t="shared" ref="A8:A21" si="1">A7+1</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="9">
         <v>34</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="9">
         <v>34</v>
       </c>
-      <c r="F7" s="65">
+      <c r="F8" s="55">
         <v>1</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="61"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="37">
+      <c r="H8" s="94"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="98"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="35">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="B9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="9">
         <v>34</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E9" s="9">
         <v>34</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="9">
+      <c r="F9" s="55"/>
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="61"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="37">
+      <c r="H9" s="94"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="98"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="35">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="B10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9">
         <v>120</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E10" s="9">
         <v>120</v>
       </c>
-      <c r="F9" s="65">
-        <v>4</v>
-      </c>
-      <c r="G9" s="9">
-        <f t="shared" ref="G9:G20" si="2">E9-F9</f>
-        <v>116</v>
-      </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="61"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="37">
+      <c r="F10" s="55">
+        <v>13</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" ref="G10:G21" si="2">E10-F10</f>
+        <v>107</v>
+      </c>
+      <c r="H10" s="94"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="98"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="35">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="9">
         <v>120</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E11" s="9">
         <v>120</v>
       </c>
-      <c r="F10" s="65">
-        <v>11</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="F11" s="55">
+        <v>34</v>
+      </c>
+      <c r="G11" s="9">
         <f t="shared" si="2"/>
-        <v>109</v>
-      </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="61"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="37">
+        <v>86</v>
+      </c>
+      <c r="H11" s="94"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="98"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="35">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B11" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="9">
-        <v>24</v>
-      </c>
-      <c r="E11" s="9">
-        <v>24</v>
-      </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="9">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="61"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="37">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="78" t="s">
-        <v>41</v>
+      <c r="B12" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>37</v>
       </c>
       <c r="D12" s="9">
         <v>24</v>
@@ -1728,1102 +1656,1495 @@
       <c r="E12" s="9">
         <v>24</v>
       </c>
-      <c r="F12" s="65"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="9">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="61"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="98"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="37">
+      <c r="A13" s="35">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="9">
+        <v>24</v>
+      </c>
+      <c r="E13" s="9">
+        <v>24</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="9">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="H13" s="94"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="98"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="35">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="B14" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="9">
         <v>25</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>36</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="9">
+      <c r="F14" s="55"/>
+      <c r="G14" s="9">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37">
+      <c r="H14" s="94"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="21"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="35">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="11">
+      <c r="B15" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="11">
+      <c r="C15" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="11">
         <v>8</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="9">
+      <c r="E15" s="11">
+        <v>8</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="9">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37">
+      <c r="H15" s="94"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="21"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="35">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="B16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9">
         <v>80</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E16" s="9">
         <v>80</v>
       </c>
-      <c r="F15" s="65">
-        <v>27</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="F16" s="55">
+        <v>59</v>
+      </c>
+      <c r="G16" s="9">
         <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="61"/>
-    </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37">
+        <v>21</v>
+      </c>
+      <c r="H16" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="101"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="98"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="B17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="9">
         <v>80</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E17" s="9">
         <v>80</v>
       </c>
-      <c r="F16" s="65">
-        <v>19</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F17" s="55">
+        <v>37</v>
+      </c>
+      <c r="G17" s="9">
         <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="61"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37">
+        <v>43</v>
+      </c>
+      <c r="H17" s="94"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="98"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="35">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="9">
+      <c r="B18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="9">
         <v>240</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E18" s="9">
         <v>240</v>
       </c>
-      <c r="F17" s="65">
-        <v>40</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="F18" s="89">
+        <v>167</v>
+      </c>
+      <c r="G18" s="9">
         <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="61"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37">
+        <v>73</v>
+      </c>
+      <c r="H18" s="94"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="98"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="35">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="72">
+      <c r="B19" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="59">
         <v>240</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E19" s="59">
         <v>240</v>
       </c>
-      <c r="F18" s="73">
-        <v>49</v>
-      </c>
-      <c r="G18" s="72">
+      <c r="F19" s="90">
+        <v>160</v>
+      </c>
+      <c r="G19" s="59">
         <f t="shared" si="2"/>
-        <v>191</v>
-      </c>
-      <c r="H18" s="74"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="76"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37">
+        <v>80</v>
+      </c>
+      <c r="H19" s="95"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="98"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="35">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="95" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="72">
+      <c r="B20" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="59">
         <v>20</v>
       </c>
-      <c r="E19" s="72">
+      <c r="E20" s="59">
         <v>20</v>
       </c>
-      <c r="F19" s="73">
-        <v>1</v>
-      </c>
-      <c r="G19" s="72">
+      <c r="F20" s="60">
+        <v>4</v>
+      </c>
+      <c r="G20" s="59">
         <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="76"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="99">
+        <v>16</v>
+      </c>
+      <c r="H20" s="95"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="98"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="83">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="38">
+      <c r="B21" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="36">
         <v>20</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E21" s="36">
         <v>20</v>
       </c>
-      <c r="F20" s="67"/>
-      <c r="G20" s="38">
+      <c r="F21" s="57"/>
+      <c r="G21" s="36">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="H20" s="69"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="71"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="98"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="45"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-    </row>
-    <row r="23" spans="1:12" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+    </row>
+    <row r="24" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="30" t="s">
+      <c r="I24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="62">
-        <f>E5*700000</f>
+      <c r="J24" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="52">
+        <f>E6*700000</f>
         <v>18900000</v>
       </c>
-      <c r="B24" s="79" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="80">
+      <c r="B25" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="64">
         <v>43581</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="87">
+      <c r="D25" s="63"/>
+      <c r="E25" s="71">
         <v>811776</v>
       </c>
-      <c r="F24" s="87">
+      <c r="F25" s="71">
         <v>940908</v>
       </c>
-      <c r="G24" s="81">
-        <f>F24/A$24</f>
+      <c r="G25" s="65">
+        <f>F25/A$25</f>
         <v>4.9783492063492064E-2</v>
       </c>
-      <c r="H24" s="87">
-        <f>A24-F24</f>
+      <c r="H25" s="71">
+        <f>A25-F25</f>
         <v>17959092</v>
       </c>
-      <c r="I24" s="68">
-        <f>1-G24</f>
+      <c r="I25" s="58">
+        <f>1-G25</f>
         <v>0.95021650793650791</v>
       </c>
-      <c r="J24" s="102"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-    </row>
-    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="82"/>
-      <c r="B25" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="83">
+      <c r="J25" s="86"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="66"/>
+      <c r="B26" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="67">
         <v>43587</v>
       </c>
-      <c r="D25" s="83"/>
-      <c r="E25" s="88">
+      <c r="D26" s="67"/>
+      <c r="E26" s="72">
         <v>612678</v>
       </c>
-      <c r="F25" s="88">
+      <c r="F26" s="72">
         <v>704160</v>
       </c>
-      <c r="G25" s="81">
-        <f>F25/A24</f>
+      <c r="G26" s="65">
+        <f>F26/A25</f>
         <v>3.7257142857142857E-2</v>
       </c>
-      <c r="H25" s="87">
-        <f t="shared" ref="H25:I30" si="3">H24-F25</f>
+      <c r="H26" s="71">
+        <f t="shared" ref="H26:I31" si="3">H25-F26</f>
         <v>17254932</v>
       </c>
-      <c r="I25" s="68">
+      <c r="I26" s="58">
         <f t="shared" si="3"/>
         <v>0.91295936507936504</v>
       </c>
-      <c r="J25" s="102"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="84">
+      <c r="J26" s="86"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="68">
         <v>43616</v>
       </c>
-      <c r="D26" s="84"/>
-      <c r="E26" s="89">
+      <c r="D27" s="68"/>
+      <c r="E27" s="73">
         <v>537204</v>
       </c>
-      <c r="F26" s="89">
+      <c r="F27" s="73">
         <v>595393</v>
       </c>
-      <c r="G26" s="81">
-        <f>F26/A24</f>
+      <c r="G27" s="65">
+        <f>F27/A25</f>
         <v>3.1502275132275132E-2</v>
       </c>
-      <c r="H26" s="87">
+      <c r="H27" s="71">
         <f t="shared" si="3"/>
         <v>16659539</v>
       </c>
-      <c r="I26" s="68">
+      <c r="I27" s="58">
         <f t="shared" si="3"/>
         <v>0.88145708994708993</v>
       </c>
-      <c r="J26" s="102"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="84">
+      <c r="J27" s="86"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="68">
         <v>43622</v>
       </c>
-      <c r="D27" s="84"/>
-      <c r="E27" s="90">
+      <c r="D28" s="68"/>
+      <c r="E28" s="74">
         <v>1217856</v>
       </c>
-      <c r="F27" s="90">
+      <c r="F28" s="74">
         <v>1305233</v>
       </c>
-      <c r="G27" s="81">
-        <f>F27/A24</f>
+      <c r="G28" s="65">
+        <f>F28/A25</f>
         <v>6.9059947089947088E-2</v>
       </c>
-      <c r="H27" s="87">
+      <c r="H28" s="71">
         <f t="shared" si="3"/>
         <v>15354306</v>
       </c>
-      <c r="I27" s="68">
+      <c r="I28" s="58">
         <f t="shared" si="3"/>
         <v>0.81239714285714282</v>
       </c>
-      <c r="J27" s="102"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="84">
+      <c r="J28" s="86"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="68">
         <v>43635</v>
       </c>
-      <c r="D28" s="84"/>
-      <c r="E28" s="89">
+      <c r="D29" s="68"/>
+      <c r="E29" s="73">
         <v>1523084</v>
       </c>
-      <c r="F28" s="89">
+      <c r="F29" s="73">
         <v>1651620</v>
       </c>
-      <c r="G28" s="81">
-        <f>F28/A24</f>
+      <c r="G29" s="65">
+        <f>F29/A25</f>
         <v>8.7387301587301583E-2</v>
       </c>
-      <c r="H28" s="87">
+      <c r="H29" s="71">
         <f t="shared" si="3"/>
         <v>13702686</v>
       </c>
-      <c r="I28" s="68">
+      <c r="I29" s="58">
         <f t="shared" si="3"/>
         <v>0.72500984126984125</v>
       </c>
-      <c r="J28" s="102"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="84">
+      <c r="J29" s="86"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="68">
         <v>43676</v>
       </c>
-      <c r="D29" s="84"/>
-      <c r="E29" s="89">
+      <c r="D30" s="68"/>
+      <c r="E30" s="73">
         <v>1673968</v>
       </c>
-      <c r="F29" s="89">
+      <c r="F30" s="73">
         <v>1758757</v>
       </c>
-      <c r="G29" s="81">
-        <f>F29/A24</f>
+      <c r="G30" s="65">
+        <f>F30/A25</f>
         <v>9.3055925925925931E-2</v>
       </c>
-      <c r="H29" s="87">
+      <c r="H30" s="71">
         <f t="shared" si="3"/>
         <v>11943929</v>
       </c>
-      <c r="I29" s="68">
+      <c r="I30" s="58">
         <f t="shared" si="3"/>
         <v>0.63195391534391532</v>
       </c>
-      <c r="J29" s="102"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
-      <c r="B30" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="84"/>
-      <c r="E30" s="89">
+      <c r="J30" s="86"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="68"/>
+      <c r="E31" s="73">
         <v>236928</v>
       </c>
-      <c r="F30" s="89">
+      <c r="F31" s="73">
         <v>247948</v>
       </c>
-      <c r="G30" s="81">
-        <f>F30/A$24</f>
+      <c r="G31" s="65">
+        <f>F31/A$25</f>
         <v>1.3118941798941798E-2</v>
       </c>
-      <c r="H30" s="87">
+      <c r="H31" s="71">
         <f t="shared" si="3"/>
         <v>11695981</v>
       </c>
-      <c r="I30" s="68">
+      <c r="I31" s="58">
         <f t="shared" si="3"/>
         <v>0.61883497354497352</v>
       </c>
-      <c r="J30" s="102"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
-      <c r="B31" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="84">
-        <v>43684</v>
-      </c>
-      <c r="D31" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="89">
-        <v>914768</v>
-      </c>
-      <c r="F31" s="89">
-        <v>991587</v>
-      </c>
-      <c r="G31" s="81">
-        <f>F31/$A$24</f>
-        <v>5.2464920634920635E-2</v>
-      </c>
-      <c r="H31" s="87">
-        <f t="shared" ref="H31" si="4">H30-F31</f>
-        <v>10704394</v>
-      </c>
-      <c r="I31" s="68">
-        <f t="shared" ref="I31" si="5">I30-G31</f>
-        <v>0.56637005291005293</v>
-      </c>
-      <c r="J31" s="102"/>
-      <c r="K31" s="57"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="49"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
-      <c r="B32" s="84" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="84">
-        <v>43692</v>
-      </c>
-      <c r="D32" s="84">
-        <v>43711</v>
-      </c>
-      <c r="E32" s="90">
-        <v>792024</v>
-      </c>
-      <c r="F32" s="89">
-        <v>978661</v>
-      </c>
-      <c r="G32" s="81">
-        <f>F32/$A$24</f>
-        <v>5.1781005291005294E-2</v>
-      </c>
-      <c r="H32" s="87">
-        <f t="shared" ref="H32" si="6">H31-F32</f>
-        <v>9725733</v>
-      </c>
-      <c r="I32" s="68">
-        <f t="shared" ref="I32" si="7">I31-G32</f>
-        <v>0.51458904761904767</v>
-      </c>
-      <c r="J32" s="102"/>
-      <c r="K32" s="57"/>
+      <c r="B32" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="68">
+        <v>43684</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="73">
+        <v>914768</v>
+      </c>
+      <c r="F32" s="73">
+        <v>991587</v>
+      </c>
+      <c r="G32" s="65">
+        <f t="shared" ref="G32:G48" si="4">F32/$A$25</f>
+        <v>5.2464920634920635E-2</v>
+      </c>
+      <c r="H32" s="71">
+        <f t="shared" ref="H32" si="5">H31-F32</f>
+        <v>10704394</v>
+      </c>
+      <c r="I32" s="58">
+        <f t="shared" ref="I32" si="6">I31-G32</f>
+        <v>0.56637005291005293</v>
+      </c>
+      <c r="J32" s="86"/>
+      <c r="K32" s="49"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
-      <c r="B33" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="84">
+      <c r="B33" s="68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="68">
+        <v>43692</v>
+      </c>
+      <c r="D33" s="68">
+        <v>43711</v>
+      </c>
+      <c r="E33" s="74">
+        <v>792024</v>
+      </c>
+      <c r="F33" s="73">
+        <v>978661</v>
+      </c>
+      <c r="G33" s="65">
+        <f t="shared" si="4"/>
+        <v>5.1781005291005294E-2</v>
+      </c>
+      <c r="H33" s="71">
+        <f t="shared" ref="H33" si="7">H32-F33</f>
+        <v>9725733</v>
+      </c>
+      <c r="I33" s="58">
+        <f t="shared" ref="I33" si="8">I32-G33</f>
+        <v>0.51458904761904767</v>
+      </c>
+      <c r="J33" s="86"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="68">
         <v>43945</v>
       </c>
-      <c r="D33" s="84">
+      <c r="D34" s="68">
         <v>43958</v>
       </c>
-      <c r="E33" s="90">
+      <c r="E34" s="74">
         <v>1038688</v>
       </c>
-      <c r="F33" s="89">
+      <c r="F34" s="73">
         <v>1088892</v>
       </c>
-      <c r="G33" s="81">
-        <f>F33/$A$24</f>
+      <c r="G34" s="65">
+        <f t="shared" si="4"/>
         <v>5.7613333333333336E-2</v>
       </c>
-      <c r="H33" s="87">
-        <f t="shared" ref="H33" si="8">H32-F33</f>
+      <c r="H34" s="71">
+        <f t="shared" ref="H34" si="9">H33-F34</f>
         <v>8636841</v>
       </c>
-      <c r="I33" s="68">
-        <f t="shared" ref="I33" si="9">I32-G33</f>
+      <c r="I34" s="58">
+        <f t="shared" ref="I34" si="10">I33-G34</f>
         <v>0.45697571428571432</v>
       </c>
-      <c r="J33" s="102"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="91">
-        <v>43958</v>
-      </c>
-      <c r="E34" s="93">
-        <v>807312</v>
-      </c>
-      <c r="F34" s="94">
-        <v>849914</v>
-      </c>
-      <c r="G34" s="81">
-        <f>F34/$A$24</f>
-        <v>4.4968994708994708E-2</v>
-      </c>
-      <c r="H34" s="87">
-        <f t="shared" ref="H34" si="10">H33-F34</f>
-        <v>7786927</v>
-      </c>
-      <c r="I34" s="68">
-        <f t="shared" ref="I34" si="11">I33-G34</f>
-        <v>0.41200671957671964</v>
-      </c>
-      <c r="J34" s="102"/>
-      <c r="K34" s="57"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="49"/>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14"/>
-      <c r="B35" s="91" t="s">
+      <c r="B35" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="91">
-        <v>43952</v>
-      </c>
-      <c r="D35" s="91">
-        <v>43972</v>
-      </c>
-      <c r="E35" s="93">
-        <v>132864</v>
-      </c>
-      <c r="F35" s="94">
-        <v>141152</v>
-      </c>
-      <c r="G35" s="81">
-        <f>F35/$A$24</f>
-        <v>7.468359788359788E-3</v>
-      </c>
-      <c r="H35" s="87">
-        <f t="shared" ref="H35" si="12">H34-F35</f>
-        <v>7645775</v>
-      </c>
-      <c r="I35" s="68">
-        <f t="shared" ref="I35" si="13">I34-G35</f>
-        <v>0.40453835978835984</v>
-      </c>
-      <c r="J35" s="102">
-        <v>582</v>
-      </c>
-      <c r="K35" s="57"/>
+      <c r="C35" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="75">
+        <v>43958</v>
+      </c>
+      <c r="E35" s="77">
+        <v>807312</v>
+      </c>
+      <c r="F35" s="78">
+        <v>849914</v>
+      </c>
+      <c r="G35" s="65">
+        <f t="shared" si="4"/>
+        <v>4.4968994708994708E-2</v>
+      </c>
+      <c r="H35" s="71">
+        <f t="shared" ref="H35" si="11">H34-F35</f>
+        <v>7786927</v>
+      </c>
+      <c r="I35" s="58">
+        <f t="shared" ref="I35" si="12">I34-G35</f>
+        <v>0.41200671957671964</v>
+      </c>
+      <c r="J35" s="86"/>
+      <c r="K35" s="49"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="57"/>
+      <c r="B36" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="75">
+        <v>43952</v>
+      </c>
+      <c r="D36" s="75">
+        <v>43972</v>
+      </c>
+      <c r="E36" s="77">
+        <v>132864</v>
+      </c>
+      <c r="F36" s="78">
+        <v>141152</v>
+      </c>
+      <c r="G36" s="65">
+        <f t="shared" si="4"/>
+        <v>7.468359788359788E-3</v>
+      </c>
+      <c r="H36" s="71">
+        <f t="shared" ref="H36" si="13">H35-F36</f>
+        <v>7645775</v>
+      </c>
+      <c r="I36" s="58">
+        <f t="shared" ref="I36" si="14">I35-G36</f>
+        <v>0.40453835978835984</v>
+      </c>
+      <c r="J36" s="86">
+        <v>582</v>
+      </c>
+      <c r="K36" s="49"/>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="57"/>
+      <c r="B37" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="75">
+        <v>44026</v>
+      </c>
+      <c r="D37" s="75">
+        <v>44028</v>
+      </c>
+      <c r="E37" s="77">
+        <v>523776</v>
+      </c>
+      <c r="F37" s="78">
+        <v>556309</v>
+      </c>
+      <c r="G37" s="65">
+        <f t="shared" si="4"/>
+        <v>2.9434338624338623E-2</v>
+      </c>
+      <c r="H37" s="71">
+        <f t="shared" ref="H37" si="15">H36-F37</f>
+        <v>7089466</v>
+      </c>
+      <c r="I37" s="58">
+        <f t="shared" ref="I37" si="16">I36-G37</f>
+        <v>0.3751040211640212</v>
+      </c>
+      <c r="J37" s="86">
+        <v>582</v>
+      </c>
+      <c r="K37" s="49"/>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="14"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="57"/>
+      <c r="B38" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="75">
+        <v>44035</v>
+      </c>
+      <c r="D38" s="75">
+        <v>44040</v>
+      </c>
+      <c r="E38" s="77">
+        <v>1248000</v>
+      </c>
+      <c r="F38" s="78">
+        <v>1295034</v>
+      </c>
+      <c r="G38" s="65">
+        <f t="shared" si="4"/>
+        <v>6.8520317460317462E-2</v>
+      </c>
+      <c r="H38" s="71">
+        <f t="shared" ref="H38" si="17">H37-F38</f>
+        <v>5794432</v>
+      </c>
+      <c r="I38" s="58">
+        <f t="shared" ref="I38" si="18">I37-G38</f>
+        <v>0.30658370370370375</v>
+      </c>
+      <c r="J38" s="86">
+        <v>571</v>
+      </c>
+      <c r="K38" s="49"/>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="14"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="94"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="57"/>
+      <c r="B39" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="75">
+        <v>44038</v>
+      </c>
+      <c r="D39" s="75">
+        <v>44040</v>
+      </c>
+      <c r="E39" s="77">
+        <v>407408</v>
+      </c>
+      <c r="F39" s="78">
+        <v>435259</v>
+      </c>
+      <c r="G39" s="65">
+        <f t="shared" si="4"/>
+        <v>2.3029576719576721E-2</v>
+      </c>
+      <c r="H39" s="71">
+        <f t="shared" ref="H39" si="19">H38-F39</f>
+        <v>5359173</v>
+      </c>
+      <c r="I39" s="58">
+        <f t="shared" ref="I39" si="20">I38-G39</f>
+        <v>0.28355412698412702</v>
+      </c>
+      <c r="J39" s="86">
+        <v>579</v>
+      </c>
+      <c r="K39" s="49"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="14"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="102"/>
-      <c r="K40" s="1"/>
+      <c r="B40" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="75">
+        <v>44069</v>
+      </c>
+      <c r="D40" s="75">
+        <v>44075</v>
+      </c>
+      <c r="E40" s="77">
+        <v>678912</v>
+      </c>
+      <c r="F40" s="78">
+        <v>710906</v>
+      </c>
+      <c r="G40" s="65">
+        <f t="shared" si="4"/>
+        <v>3.7614074074074071E-2</v>
+      </c>
+      <c r="H40" s="71">
+        <f t="shared" ref="H40" si="21">H39-F40</f>
+        <v>4648267</v>
+      </c>
+      <c r="I40" s="58">
+        <f t="shared" ref="I40" si="22">I39-G40</f>
+        <v>0.24594005291005294</v>
+      </c>
+      <c r="J40" s="86">
+        <v>573</v>
+      </c>
+      <c r="K40" s="49"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="100">
-        <f>SUM(E24:E40)</f>
-        <v>10299150</v>
-      </c>
-      <c r="F41" s="101">
-        <f>SUM(F24:F40)</f>
-        <v>11254225</v>
-      </c>
-      <c r="G41" s="20">
-        <f>SUM(G24:G40)</f>
-        <v>0.59546164021164016</v>
-      </c>
-      <c r="H41" s="18">
-        <f>A24-F41</f>
-        <v>7645775</v>
-      </c>
-      <c r="I41" s="22">
-        <f>1-G41</f>
-        <v>0.40453835978835984</v>
-      </c>
-      <c r="J41" s="103"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="14"/>
+      <c r="B41" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="75">
+        <v>44073</v>
+      </c>
+      <c r="D41" s="75">
+        <v>44075</v>
+      </c>
+      <c r="E41" s="77">
+        <v>544880</v>
+      </c>
+      <c r="F41" s="78">
+        <v>577287</v>
+      </c>
+      <c r="G41" s="65">
+        <f t="shared" si="4"/>
+        <v>3.0544285714285715E-2</v>
+      </c>
+      <c r="H41" s="71">
+        <f t="shared" ref="H41" si="23">H40-F41</f>
+        <v>4070980</v>
+      </c>
+      <c r="I41" s="58">
+        <f t="shared" ref="I41" si="24">I40-G41</f>
+        <v>0.21539576719576722</v>
+      </c>
+      <c r="J41" s="86">
+        <v>578</v>
+      </c>
+      <c r="K41" s="49"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="14"/>
+      <c r="B42" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="75">
+        <v>44252</v>
+      </c>
+      <c r="D42" s="75">
+        <v>44256</v>
+      </c>
+      <c r="E42" s="77">
+        <v>541992</v>
+      </c>
+      <c r="F42" s="78">
+        <v>575525</v>
+      </c>
+      <c r="G42" s="65">
+        <f t="shared" si="4"/>
+        <v>3.0451058201058201E-2</v>
+      </c>
+      <c r="H42" s="71">
+        <f t="shared" ref="H42" si="25">H41-F42</f>
+        <v>3495455</v>
+      </c>
+      <c r="I42" s="58">
+        <f t="shared" ref="I42" si="26">I41-G42</f>
+        <v>0.18494470899470902</v>
+      </c>
+      <c r="J42" s="86">
+        <v>578</v>
+      </c>
+      <c r="K42" s="49"/>
+      <c r="L42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="14"/>
+      <c r="B43" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="75">
+        <v>44256</v>
+      </c>
+      <c r="E43" s="77">
+        <v>429312</v>
+      </c>
+      <c r="F43" s="78">
+        <v>440594</v>
+      </c>
+      <c r="G43" s="65">
+        <f t="shared" si="4"/>
+        <v>2.3311851851851851E-2</v>
+      </c>
+      <c r="H43" s="71">
+        <f t="shared" ref="H43" si="27">H42-F43</f>
+        <v>3054861</v>
+      </c>
+      <c r="I43" s="58">
+        <f t="shared" ref="I43" si="28">I42-G43</f>
+        <v>0.16163285714285716</v>
+      </c>
+      <c r="J43" s="86">
+        <v>570</v>
+      </c>
+      <c r="K43" s="49"/>
+      <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="105" t="s">
+      <c r="A44" s="14"/>
+      <c r="B44" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="75">
+        <v>44256</v>
+      </c>
+      <c r="D44" s="75">
+        <v>44287</v>
+      </c>
+      <c r="E44" s="77">
+        <v>139008</v>
+      </c>
+      <c r="F44" s="78">
+        <v>146241</v>
+      </c>
+      <c r="G44" s="65">
+        <f t="shared" si="4"/>
+        <v>7.7376190476190479E-3</v>
+      </c>
+      <c r="H44" s="71">
+        <f t="shared" ref="H44" si="29">H43-F44</f>
+        <v>2908620</v>
+      </c>
+      <c r="I44" s="58">
+        <f t="shared" ref="I44" si="30">I43-G44</f>
+        <v>0.15389523809523811</v>
+      </c>
+      <c r="J44" s="86">
+        <v>570</v>
+      </c>
+      <c r="K44" s="49"/>
+      <c r="L44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="14"/>
+      <c r="B45" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="75">
+        <v>44315</v>
+      </c>
+      <c r="D45" s="75">
+        <v>44289</v>
+      </c>
+      <c r="E45" s="77">
+        <v>546048</v>
+      </c>
+      <c r="F45" s="78">
+        <v>576819</v>
+      </c>
+      <c r="G45" s="65">
+        <f t="shared" si="4"/>
+        <v>3.0519523809523809E-2</v>
+      </c>
+      <c r="H45" s="71">
+        <f t="shared" ref="H45" si="31">H44-F45</f>
+        <v>2331801</v>
+      </c>
+      <c r="I45" s="58">
+        <f t="shared" ref="I45" si="32">I44-G45</f>
+        <v>0.12337571428571431</v>
+      </c>
+      <c r="J45" s="86">
+        <v>573</v>
+      </c>
+      <c r="K45" s="49"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="75">
+        <v>44289</v>
+      </c>
+      <c r="E46" s="77">
+        <v>136704</v>
+      </c>
+      <c r="F46" s="78">
+        <v>145567</v>
+      </c>
+      <c r="G46" s="65">
+        <f t="shared" si="4"/>
+        <v>7.7019576719576724E-3</v>
+      </c>
+      <c r="H46" s="71">
+        <f t="shared" ref="H46" si="33">H45-F46</f>
+        <v>2186234</v>
+      </c>
+      <c r="I46" s="58">
+        <f t="shared" ref="I46" si="34">I45-G46</f>
+        <v>0.11567375661375665</v>
+      </c>
+      <c r="J46" s="86">
+        <v>579</v>
+      </c>
+      <c r="K46" s="49"/>
+      <c r="L46" s="1"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="14"/>
+      <c r="B47" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="75">
+        <v>44320</v>
+      </c>
+      <c r="D47" s="75">
+        <v>44349</v>
+      </c>
+      <c r="E47" s="77">
+        <v>565596</v>
+      </c>
+      <c r="F47" s="78">
+        <v>582342</v>
+      </c>
+      <c r="G47" s="65">
+        <f t="shared" si="4"/>
+        <v>3.081174603174603E-2</v>
+      </c>
+      <c r="H47" s="71">
+        <f t="shared" ref="H47" si="35">H46-F47</f>
+        <v>1603892</v>
+      </c>
+      <c r="I47" s="58">
+        <f t="shared" ref="I47" si="36">I46-G47</f>
+        <v>8.4862010582010622E-2</v>
+      </c>
+      <c r="J47" s="86">
+        <v>578</v>
+      </c>
+      <c r="K47" s="49"/>
+      <c r="L47" s="1"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="14"/>
+      <c r="B48" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="75">
+        <v>44322</v>
+      </c>
+      <c r="D48" s="75">
+        <v>44349</v>
+      </c>
+      <c r="E48" s="77">
+        <v>208128</v>
+      </c>
+      <c r="F48" s="78">
+        <v>292813</v>
+      </c>
+      <c r="G48" s="65">
+        <f t="shared" si="4"/>
+        <v>1.5492751322751323E-2</v>
+      </c>
+      <c r="H48" s="71">
+        <f t="shared" ref="H48" si="37">H47-F48</f>
+        <v>1311079</v>
+      </c>
+      <c r="I48" s="58">
+        <f t="shared" ref="I48" si="38">I47-G48</f>
+        <v>6.9369259259259297E-2</v>
+      </c>
+      <c r="J48" s="86">
+        <v>571</v>
+      </c>
+      <c r="K48" s="49"/>
+      <c r="L48" s="1"/>
+    </row>
+    <row r="49" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="58"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+    </row>
+    <row r="50" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="84">
+        <f>SUM(E25:E49)</f>
+        <v>16268914</v>
+      </c>
+      <c r="F50" s="85">
+        <f>SUM(F25:F49)</f>
+        <v>17588921</v>
+      </c>
+      <c r="G50" s="20">
+        <f>SUM(G25:G49)</f>
+        <v>0.9306307407407407</v>
+      </c>
+      <c r="H50" s="18">
+        <f>A25-F50</f>
+        <v>1311079</v>
+      </c>
+      <c r="I50" s="22">
+        <f>1-G50</f>
+        <v>6.9369259259259297E-2</v>
+      </c>
+      <c r="J50" s="87"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="103"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="112"/>
+      <c r="C55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="105"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" s="114" t="s">
+      <c r="D55" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="114"/>
-      <c r="C46" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="112">
-        <f>A24-F41</f>
-        <v>7645775</v>
-      </c>
-      <c r="B47" s="113"/>
-      <c r="C47" s="63">
-        <f>1-G41</f>
-        <v>0.40453835978835984</v>
-      </c>
-      <c r="D47" s="19">
-        <f>(C47/0.8)*100</f>
-        <v>50.567294973544975</v>
-      </c>
-      <c r="E47" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="77"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="45"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="110"/>
-      <c r="J51" s="111"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="46"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="47"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="46"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="47"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="46"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="47"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="46"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="47"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="46"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="47"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="46"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="46"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="47"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="46"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="47"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="46"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="48"/>
-      <c r="H60" s="47"/>
-    </row>
-    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="107"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="108"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="45"/>
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="110"/>
-      <c r="J62" s="111"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="46"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="110">
+        <f>A25-F50</f>
+        <v>1311079</v>
+      </c>
+      <c r="B56" s="111"/>
+      <c r="C56" s="53">
+        <f>1-G50</f>
+        <v>6.9369259259259297E-2</v>
+      </c>
+      <c r="D56" s="19">
+        <f>(C56/0.8)*100</f>
+        <v>8.6711574074074118</v>
+      </c>
+      <c r="E56" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="61"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="108"/>
+      <c r="J60" s="109"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="38"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="39"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="38"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="39"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="38"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="106"/>
-      <c r="J63" s="106"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="46"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="106"/>
-      <c r="J64" s="106"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="39"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="38"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="39"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="38"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B70" s="110"/>
-      <c r="C70" s="111"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="110"/>
-      <c r="C77" s="111"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="39"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="38"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="38"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="39"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="38"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="39"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="38"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="39"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="105"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="106"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="108"/>
+      <c r="J71" s="109"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="38"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="104"/>
+      <c r="J72" s="104"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="38"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="104"/>
+      <c r="J73" s="104"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B79" s="108"/>
+      <c r="C79" s="109"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86" s="108"/>
+      <c r="C86" s="109"/>
     </row>
   </sheetData>
-  <sortState ref="B9:G15">
-    <sortCondition ref="B9"/>
+  <sortState ref="B10:G16">
+    <sortCondition ref="B10"/>
   </sortState>
-  <mergeCells count="12">
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
+  <mergeCells count="13">
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I72:J72"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B2:L2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="47" max="12" man="1"/>
+    <brk id="56" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>

--- a/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 1,5 л.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Банки/Банка 1,5 л.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Банки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D52C633-72AB-4DFA-BF07-F927A62834CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7464BA30-38B6-43B5-9A95-0B75DA2BB32F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$J$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$J$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>№Поз</t>
   </si>
@@ -242,6 +242,15 @@
   </si>
   <si>
     <t>05/05/2021 СКО</t>
+  </si>
+  <si>
+    <t>15/06/2021 СКО</t>
+  </si>
+  <si>
+    <t>21.06.2021 twist</t>
+  </si>
+  <si>
+    <t>28/06/2021 СКО</t>
   </si>
 </sst>
 </file>
@@ -988,20 +997,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1011,6 +1006,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1353,10 +1362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1376,45 +1385,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="88"/>
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
       <c r="F3" s="23"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -2233,7 +2242,7 @@
         <v>991587</v>
       </c>
       <c r="G32" s="65">
-        <f t="shared" ref="G32:G48" si="4">F32/$A$25</f>
+        <f t="shared" ref="G32:G51" si="4">F32/$A$25</f>
         <v>5.2464920634920635E-2</v>
       </c>
       <c r="H32" s="71">
@@ -2802,119 +2811,169 @@
       <c r="K48" s="49"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="14"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="1"/>
+      <c r="B49" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="75">
+        <v>44367</v>
+      </c>
+      <c r="D49" s="75">
+        <v>44378</v>
+      </c>
+      <c r="E49" s="77">
+        <v>859392</v>
+      </c>
+      <c r="F49" s="78">
+        <v>900561</v>
+      </c>
+      <c r="G49" s="65">
+        <f t="shared" si="4"/>
+        <v>4.7648730158730161E-2</v>
+      </c>
+      <c r="H49" s="71">
+        <f t="shared" ref="H49" si="39">H48-F49</f>
+        <v>410518</v>
+      </c>
+      <c r="I49" s="58">
+        <f t="shared" ref="I49" si="40">I48-G49</f>
+        <v>2.1720529100529136E-2</v>
+      </c>
+      <c r="J49" s="86">
+        <v>571</v>
+      </c>
+      <c r="K49" s="49"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="14"/>
+      <c r="B50" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="75">
+        <v>44374</v>
+      </c>
+      <c r="D50" s="75">
+        <v>44378</v>
+      </c>
+      <c r="E50" s="77">
+        <v>998224</v>
+      </c>
+      <c r="F50" s="78">
+        <v>1046797</v>
+      </c>
+      <c r="G50" s="65">
+        <f t="shared" si="4"/>
+        <v>5.5386084656084654E-2</v>
+      </c>
+      <c r="H50" s="71">
+        <f t="shared" ref="H50" si="41">H49-F50</f>
+        <v>-636279</v>
+      </c>
+      <c r="I50" s="58">
+        <f t="shared" ref="I50" si="42">I49-G50</f>
+        <v>-3.3665555555555518E-2</v>
+      </c>
+      <c r="J50" s="86">
+        <v>579</v>
+      </c>
+      <c r="K50" s="49"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="14"/>
+      <c r="B51" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="75">
+        <v>44378</v>
+      </c>
+      <c r="E51" s="77">
+        <v>435000</v>
+      </c>
+      <c r="F51" s="78">
+        <v>447922</v>
+      </c>
+      <c r="G51" s="65">
+        <f t="shared" si="4"/>
+        <v>2.3699576719576721E-2</v>
+      </c>
+      <c r="H51" s="71">
+        <f t="shared" ref="H51" si="43">H50-F51</f>
+        <v>-1084201</v>
+      </c>
+      <c r="I51" s="58">
+        <f t="shared" ref="I51" si="44">I50-G51</f>
+        <v>-5.7365132275132236E-2</v>
+      </c>
+      <c r="J51" s="86">
+        <v>571</v>
+      </c>
+      <c r="K51" s="49"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="14"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="71"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="86"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="1"/>
+    </row>
+    <row r="53" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="58"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+    </row>
+    <row r="54" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="84">
-        <f>SUM(E25:E49)</f>
-        <v>16268914</v>
-      </c>
-      <c r="F50" s="85">
-        <f>SUM(F25:F49)</f>
-        <v>17588921</v>
-      </c>
-      <c r="G50" s="20">
-        <f>SUM(G25:G49)</f>
-        <v>0.9306307407407407</v>
-      </c>
-      <c r="H50" s="18">
-        <f>A25-F50</f>
-        <v>1311079</v>
-      </c>
-      <c r="I50" s="22">
-        <f>1-G50</f>
-        <v>6.9369259259259297E-2</v>
-      </c>
-      <c r="J50" s="87"/>
-      <c r="K50" s="51"/>
-      <c r="L50" s="51"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="103" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="103"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="112" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="112"/>
-      <c r="C55" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="110">
-        <f>A25-F50</f>
-        <v>1311079</v>
-      </c>
-      <c r="B56" s="111"/>
-      <c r="C56" s="53">
-        <f>1-G50</f>
-        <v>6.9369259259259297E-2</v>
-      </c>
-      <c r="D56" s="19">
-        <f>(C56/0.8)*100</f>
-        <v>8.6711574074074118</v>
-      </c>
-      <c r="E56" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="61"/>
-      <c r="I56" s="61"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="61"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="84">
+        <f>SUM(E25:E53)</f>
+        <v>18561530</v>
+      </c>
+      <c r="F54" s="85">
+        <f>SUM(F25:F53)</f>
+        <v>19984201</v>
+      </c>
+      <c r="G54" s="20">
+        <f>SUM(G25:G53)</f>
+        <v>1.0573651322751323</v>
+      </c>
+      <c r="H54" s="18">
+        <f>A25-F54</f>
+        <v>-1084201</v>
+      </c>
+      <c r="I54" s="22">
+        <f>1-G54</f>
+        <v>-5.7365132275132291E-2</v>
+      </c>
+      <c r="J54" s="87"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="51"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
@@ -2923,27 +2982,36 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="109"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="109"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="1"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" s="106"/>
+      <c r="C59" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -2952,56 +3020,76 @@
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="37"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="108"/>
-      <c r="J60" s="109"/>
+      <c r="A60" s="104">
+        <f>A25-F54</f>
+        <v>-1084201</v>
+      </c>
+      <c r="B60" s="105"/>
+      <c r="C60" s="53">
+        <f>1-G54</f>
+        <v>-5.7365132275132291E-2</v>
+      </c>
+      <c r="D60" s="19">
+        <f>(C60/0.8)*100</f>
+        <v>-7.1706415343915362</v>
+      </c>
+      <c r="E60" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="61"/>
+      <c r="L60" s="61"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="38"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="39"/>
+      <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="38"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="39"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="38"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="39"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="38"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="39"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="102"/>
+      <c r="J64" s="103"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="38"/>
@@ -3016,19 +3104,19 @@
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="38"/>
       <c r="B66" s="39"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="42"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="39"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="38"/>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
       <c r="F67" s="39"/>
       <c r="G67" s="40"/>
       <c r="H67" s="39"/>
@@ -3053,98 +3141,138 @@
       <c r="G69" s="40"/>
       <c r="H69" s="39"/>
     </row>
-    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="105"/>
-      <c r="C70" s="105"/>
-      <c r="D70" s="106"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="38"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="37"/>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="108"/>
-      <c r="J71" s="109"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="39"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="38"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="40"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
       <c r="G72" s="40"/>
       <c r="H72" s="39"/>
-      <c r="I72" s="104"/>
-      <c r="J72" s="104"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="38"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="104"/>
-      <c r="J73" s="104"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="40"/>
+      <c r="H73" s="39"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="B74" s="110"/>
+      <c r="C74" s="110"/>
+      <c r="D74" s="111"/>
+      <c r="E74" s="43"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B79" s="108"/>
-      <c r="C79" s="109"/>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B86" s="108"/>
-      <c r="C86" s="109"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="102"/>
+      <c r="J75" s="103"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="38"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="107"/>
+      <c r="J76" s="107"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="38"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="107"/>
+      <c r="J77" s="107"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" s="102"/>
+      <c r="C83" s="103"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B90" s="102"/>
+      <c r="C90" s="103"/>
     </row>
   </sheetData>
   <sortState ref="B10:G16">
     <sortCondition ref="B10"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I72:J72"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="B74:D74"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I76:J76"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="56" max="12" man="1"/>
+    <brk id="60" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
